--- a/medicine/Enfance/Jean-Michel_Payet/Jean-Michel_Payet.xlsx
+++ b/medicine/Enfance/Jean-Michel_Payet/Jean-Michel_Payet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Payet, né le 1er mai 1955 à Paris, est un architecte, illustrateur et écrivain français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Michel Payet a suivi des cours d'architecture à l'École des beaux-arts de Paris et ceux de l'École nationale des ponts et chaussées. En parallèle de sa profession d'architecte-urbaniste, Jean-Michel Payet a illustré de nombreux livres depuis 1990, notamment chez Casterman[réf. nécessaire].
-Il est également auteur de plusieurs livres pour enfants et adolescents[1].
+Il est également auteur de plusieurs livres pour enfants et adolescents.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Balto #3, L'homme à la Torpédo rouge sang, Édition l’École des Loisirs, collection Médium+, septembre 2022
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Balto #3, L'homme à la Torpédo rouge sang, Édition l’École des Loisirs, collection Médium+, septembre 2022
 Balto #2, Les Gardiens de Nulle-Part, Édition l’École des Loisirs, collection Médium+, août 2021
 Balto #1, le Dernier des Valets de Cœur, Édition l’École des Loisirs, collection Médium+,  juin 2020
 La disparue de Linton Hill, Édition Rageot – septembre 2015
@@ -571,16 +590,84 @@
 Le baiser à moustaches, illustrations de Nicolas Ryser, Milan cadet +, 2009 (élu livre de l’année par le jury du jeune lecteur de Montivilliers, catégorie CE2/CM1, 2010).
 Questions pour un crapaud, illustrations de Jean-François Martin, Milan, 2004 (prix des adultes dans le cadre du 17e prix des Incorruptibles CM2/6ème, 2006, prix des lecteurs de Saint Martin de Crau 2005).
 Série TALAM, sous le pseudonyme de Walter Spock, illustrations de Benoît Perroud, Milan :
-L’énigme du tigre, 2010.
-Presse
-Les enquêtes de Scarlett et Watson :
+L’énigme du tigre, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Presse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les enquêtes de Scarlett et Watson :
 « Le Trésor de Monsieur Ziane », illustrations de Mélanie Allag, Moi je lis, octobre 2009 ;
 « Le Chat égyptien », illustrations de Mélanie Allag,Moi je lis, mars 2010 ;
 « Chats perdus portés disparus », illustrations de Mélanie Allag, Moi je lis, septembre 2010 ;
 « Fonce Oscar », illustrations de Mélanie Allag, Moi je lis, mai 2011 ;
-« Un petit retour vers ce matin », illustrations de Anne Cresci, Les Aventuriers, n°48, mars 2002.
-Auteur et illustrateur (sous le pseudonyme de Jim Paillette)
-Collection BD-romans chez Albin Michel Jeunesse :
+« Un petit retour vers ce matin », illustrations de Anne Cresci, Les Aventuriers, n°48, mars 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur (sous le pseudonyme de Jim Paillette)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Collection BD-romans chez Albin Michel Jeunesse :
 Les aventures de Jo :
 Le secret de Johnny T., 1996 (prix du livre jeunesse, biennale de Montmorillon, 1997) ;
 Radio Jo, 1996 ;
@@ -588,12 +675,84 @@
 Les aventures de Kim :
 Le maître du septième monde, 1996 (prix BD au Salon de Bron 1997) ;
 Kim contre l'insaisissable, 1996 ;
-Le sortilège des marais, 1997.
-Illustration
-Album
-Dans la tête de Monsieur Adam (ou comment naissent les histoires), texte de Sigrid Baffert, Éditions Milan Album, 2010.
-Documentaire
-Le siècle des lumières, Casterman, collection « Les jours de l'histoire », 1991.
+Le sortilège des marais, 1997.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Album
+Dans la tête de Monsieur Adam (ou comment naissent les histoires), texte de Sigrid Baffert, Éditions Milan Album, 2010.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Documentaire</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le siècle des lumières, Casterman, collection « Les jours de l'histoire », 1991.
 Le colt, Florence Maruéjol, Casterman, collection « Les jours de l'histoire », 1991.
 Le sarcophage, Claudine Roland, Casterman, collection « Les jours de l'histoire »,1991.
 Le biface, Tixier et de St Blanquat, Casterman, collection « Les jours de l'histoire », 1992.
@@ -606,9 +765,47 @@
 Le Monde de la Bible (Maurice Meleau - Casterman, collection Repères/histoire, 1999.
 Lire l'architecture des monuments parisiens (Joseph Belmont - Parigramme, 2001.
 Promenades gourmandes en Toscane (Jean-Michel Carasso – Robert Laffont, 2002.
-Notre-Dame de Paris (Victor Hugo – Bibliothèque Hachette, 2002.
-Fiction
-La Télécommande magique, texte de Stéphane Daniel, Éditions Rouge Safran, collection « Cannelle », 2010.
+Notre-Dame de Paris (Victor Hugo – Bibliothèque Hachette, 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Michel_Payet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Télécommande magique, texte de Stéphane Daniel, Éditions Rouge Safran, collection « Cannelle », 2010.
 Moi, Galilée, Yves Chéraqui, Casterman, collection « Moi, je », 1989.
 Moi, Moctézuma, D. Grosjean et Cl. Roland, Casterman, collection « Moi, je », 1990.
 Enlevée par les indiens, Mary Jemison, Casterman, collection « Passé Composé », 1990. Réédition collection « Roman », 1995.
